--- a/f303C_sens/Map Registers.xlsx
+++ b/f303C_sens/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E075997-BAF6-428F-8CFC-C6E36319456D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64AEA13-3720-4CC4-A418-48D71CE24D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21336" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Десятичная</t>
   </si>
@@ -123,6 +123,24 @@
   </si>
   <si>
     <t>W/R</t>
+  </si>
+  <si>
+    <t>callibration</t>
+  </si>
+  <si>
+    <t>запись фоновых значений в системе</t>
+  </si>
+  <si>
+    <t>TimeOut</t>
+  </si>
+  <si>
+    <t>0-255</t>
+  </si>
+  <si>
+    <t>Время задержки устаноки сигнала в милисекундах</t>
+  </si>
+  <si>
+    <t>0-4092</t>
   </si>
 </sst>
 </file>
@@ -898,7 +916,7 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,11 +991,17 @@
       <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
@@ -1038,11 +1062,21 @@
       <c r="B10" s="25">
         <v>6</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="17">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
@@ -1051,11 +1085,19 @@
       <c r="B11" s="22">
         <v>7</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
       <c r="F11" s="10"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
@@ -1108,7 +1150,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>29</v>

--- a/f303C_sens/Map Registers.xlsx
+++ b/f303C_sens/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64AEA13-3720-4CC4-A418-48D71CE24D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460857C8-6118-4181-AB4B-90AA5EC87EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21336" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1704" yWindow="732" windowWidth="21336" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Десятичная</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>0-4092</t>
+  </si>
+  <si>
+    <t>TimeCall</t>
+  </si>
+  <si>
+    <t>Время калибровки</t>
+  </si>
+  <si>
+    <t>1000-100000</t>
   </si>
 </sst>
 </file>
@@ -916,7 +925,7 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1049,11 +1058,21 @@
       <c r="B9" s="22">
         <v>5</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="16"/>
+      <c r="C9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">

--- a/f303C_sens/Map Registers.xlsx
+++ b/f303C_sens/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460857C8-6118-4181-AB4B-90AA5EC87EDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75CB13E-B2DC-408F-8269-1C6738054C55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1704" yWindow="732" windowWidth="21336" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Десятичная</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>1000-100000</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Глубина фильтра от помех</t>
+  </si>
+  <si>
+    <t>0-100</t>
+  </si>
+  <si>
+    <t>CH1_</t>
+  </si>
+  <si>
+    <t>При записи запускается измерение, после 0,007 сек данные будут готовы. При чтении выдает присутствие обекта</t>
+  </si>
+  <si>
+    <t>0-1</t>
   </si>
 </sst>
 </file>
@@ -466,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -578,6 +596,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -925,23 +946,23 @@
   <dimension ref="A1:BI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -949,7 +970,7 @@
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -972,7 +993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -993,7 +1014,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
@@ -1012,20 +1033,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
@@ -1038,20 +1067,30 @@
       <c r="F7" s="10"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="25">
         <v>4</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="17">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1074,7 +1113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -1094,10 +1133,10 @@
         <v>10</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
@@ -1118,7 +1157,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>13</v>
       </c>
@@ -1135,7 +1174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
@@ -1156,7 +1195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
         <v>15</v>
       </c>
@@ -1175,7 +1214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
         <v>16</v>
       </c>
@@ -1188,7 +1227,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
@@ -1201,7 +1240,7 @@
       <c r="F16" s="12"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:61" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:61" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>19</v>
       </c>
@@ -1268,7 +1307,7 @@
       <c r="BH17" s="2"/>
       <c r="BI17" s="2"/>
     </row>
-    <row r="18" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>21</v>
       </c>
@@ -1281,7 +1320,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
         <v>22</v>
       </c>
@@ -1294,7 +1333,7 @@
       <c r="F19" s="12"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:61" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>25</v>
       </c>
@@ -1326,7 +1365,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1339,7 +1378,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
